--- a/models/dataread/sc.xlsx
+++ b/models/dataread/sc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\python\SCSystem\models\dataread\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856AE1DA-F002-4BDE-BE64-510DB0D6C4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937E6974-CC10-45C1-8317-BA852AC324D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stu" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
   <si>
     <t>Tno</t>
   </si>
@@ -132,79 +132,37 @@
     <t>chours</t>
   </si>
   <si>
-    <t>001</t>
-  </si>
-  <si>
     <t>高等数学</t>
   </si>
   <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>线性代数</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
     <t>概率论</t>
   </si>
   <si>
-    <t>004</t>
-  </si>
-  <si>
     <t>微观经济学</t>
   </si>
   <si>
-    <t>005</t>
-  </si>
-  <si>
     <t>离散数学</t>
   </si>
   <si>
-    <t>097</t>
-  </si>
-  <si>
     <t>算法与数据结构</t>
   </si>
   <si>
-    <t>086</t>
-  </si>
-  <si>
     <t>计算机导论</t>
   </si>
   <si>
-    <t>075</t>
-  </si>
-  <si>
     <t>数据库理论</t>
   </si>
   <si>
-    <t>064</t>
-  </si>
-  <si>
     <t>马克思主义哲学</t>
   </si>
   <si>
-    <t>053</t>
-  </si>
-  <si>
     <t>毛泽东概论</t>
   </si>
   <si>
-    <t>042</t>
-  </si>
-  <si>
     <t>运筹学</t>
   </si>
   <si>
-    <t>031</t>
-  </si>
-  <si>
     <t>财务报表分析</t>
-  </si>
-  <si>
-    <t>020</t>
   </si>
   <si>
     <t>计算机网络</t>
@@ -711,7 +669,7 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -725,19 +683,19 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" s="9" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.75">
@@ -745,7 +703,7 @@
         <v>111111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -754,7 +712,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H2" s="12"/>
     </row>
@@ -763,7 +721,7 @@
         <v>222222</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -772,7 +730,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.75">
@@ -780,7 +738,7 @@
         <v>333333</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -789,7 +747,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.75">
@@ -797,16 +755,16 @@
         <v>555555</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D5" s="10">
         <v>20</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.75">
@@ -814,16 +772,16 @@
         <v>999999</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D6" s="10">
         <v>20</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.75">
@@ -831,16 +789,16 @@
         <v>888888</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D7" s="10">
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.75">
@@ -848,16 +806,16 @@
         <v>1000000</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D8" s="10">
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.75">
@@ -865,16 +823,16 @@
         <v>1253967</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D9" s="10">
         <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.75">
@@ -882,16 +840,16 @@
         <v>1420633</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D10" s="10">
         <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.75">
@@ -899,7 +857,7 @@
         <v>1587300</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
@@ -908,7 +866,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.75">
@@ -916,7 +874,7 @@
         <v>1753966</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>6</v>
@@ -925,7 +883,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.75">
@@ -933,7 +891,7 @@
         <v>1920633</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>6</v>
@@ -942,7 +900,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.75">
@@ -950,7 +908,7 @@
         <v>2087299</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>6</v>
@@ -959,7 +917,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -974,10 +932,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.45"/>
@@ -1007,264 +965,524 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1001</v>
+      </c>
+      <c r="B2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>61</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>61</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>90</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1010</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1011</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1020</v>
+      </c>
+      <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="3">
-        <v>100</v>
-      </c>
-      <c r="D2" s="3">
-        <v>61</v>
-      </c>
-      <c r="E2" s="3">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="6" t="s">
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1021</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>1030</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>1031</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>1032</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>1040</v>
+      </c>
+      <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>55</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>1041</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>55</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>1050</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>1051</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>1060</v>
+      </c>
+      <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="3">
-        <v>100</v>
-      </c>
-      <c r="D3" s="3">
-        <v>73</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>89</v>
+      </c>
+      <c r="E16">
         <v>4</v>
       </c>
-      <c r="F3" s="3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A4" s="6" t="s">
+      <c r="F16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>1061</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>89</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>1070</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <v>36</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>1071</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>36</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>1080</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>11</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>1081</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>1090</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22">
+        <v>45</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>1091</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <v>45</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>1100</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <v>32</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>1101</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25">
+        <v>32</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>1110</v>
+      </c>
+      <c r="B26" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="3">
-        <v>100</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="3">
-        <v>100</v>
-      </c>
-      <c r="D5" s="3">
-        <v>55</v>
-      </c>
-      <c r="E5" s="3">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="3">
-        <v>100</v>
-      </c>
-      <c r="D6" s="3">
-        <v>89</v>
-      </c>
-      <c r="E6" s="3">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="3">
-        <v>100</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="D26">
         <v>22</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E26">
         <v>3</v>
       </c>
-      <c r="F7" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="3">
-        <v>100</v>
-      </c>
-      <c r="D8" s="3">
-        <v>32</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="F26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>1111</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27">
+        <v>22</v>
+      </c>
+      <c r="E27">
         <v>3</v>
       </c>
-      <c r="F8" s="3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="3">
-        <v>100</v>
-      </c>
-      <c r="D9" s="3">
-        <v>45</v>
-      </c>
-      <c r="E9" s="3">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="3">
-        <v>100</v>
-      </c>
-      <c r="D10" s="3">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="3">
-        <v>100</v>
-      </c>
-      <c r="D11" s="3">
-        <v>36</v>
-      </c>
-      <c r="E11" s="3">
-        <v>3</v>
-      </c>
-      <c r="F11" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="3">
-        <v>100</v>
-      </c>
-      <c r="D12" s="3">
-        <v>25</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="3">
-        <v>100</v>
-      </c>
-      <c r="D13" s="3">
-        <v>23</v>
-      </c>
-      <c r="E13" s="3">
-        <v>3</v>
-      </c>
-      <c r="F13" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A14" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="3">
-        <v>100</v>
-      </c>
-      <c r="D14" s="3">
-        <v>21</v>
-      </c>
-      <c r="E14" s="3">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>70</v>
+      <c r="F27">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
